--- a/22 - Requisitos de Sistema (SSS)/Requisitos de Sistema (SSS).xlsx
+++ b/22 - Requisitos de Sistema (SSS)/Requisitos de Sistema (SSS).xlsx
@@ -349,7 +349,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="90.57"/>
+    <col customWidth="1" min="2" max="2" width="92.0"/>
   </cols>
   <sheetData>
     <row r="1">
